--- a/biology/Médecine/Ernest_McCulloch/Ernest_McCulloch.xlsx
+++ b/biology/Médecine/Ernest_McCulloch/Ernest_McCulloch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ernest Armstrong McCulloch (27 avril 1926 - 20 janvier 2011) est un médecin professeur-chercheur ontarien (canadien), hématologue, codécouvreur en 1961, avec James Till, des cellules souches[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ernest Armstrong McCulloch (27 avril 1926 - 20 janvier 2011) est un médecin professeur-chercheur ontarien (canadien), hématologue, codécouvreur en 1961, avec James Till, des cellules souches.
 Professeur émérite de l'université de Toronto, il fut aussi directeur de l'Ontario Cancer Institute, au Princess Margaret Hospital (en).
-Ernest McCulloch est mort le 20 janvier 2011 (à 84 ans)[3],[4].
+Ernest McCulloch est mort le 20 janvier 2011 (à 84 ans),.
 </t>
         </is>
       </c>
